--- a/ANGLE/7.xlsx
+++ b/ANGLE/7.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>电话号码</t>
   </si>
@@ -25,6 +25,10 @@
   </si>
   <si>
     <t>13425179020</t>
+  </si>
+  <si>
+    <t>13425179021</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -393,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -427,6 +431,21 @@
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/ANGLE/7.xlsx
+++ b/ANGLE/7.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="4">
   <si>
     <t>电话号码</t>
   </si>
@@ -28,7 +28,6 @@
   </si>
   <si>
     <t>13425179021</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -397,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A3" sqref="A3:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -446,6 +445,116 @@
     <row r="8" spans="1:1" ht="15">
       <c r="A8" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15">
+      <c r="A15" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15">
+      <c r="A17" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15">
+      <c r="A18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15">
+      <c r="A21" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15">
+      <c r="A22" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15">
+      <c r="A23" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15">
+      <c r="A24" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15">
+      <c r="A26" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15">
+      <c r="A27" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15">
+      <c r="A28" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15">
+      <c r="A29" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15">
+      <c r="A30" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/ANGLE/7.xlsx
+++ b/ANGLE/7.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="4">
   <si>
     <t>电话号码</t>
   </si>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -554,6 +554,111 @@
     </row>
     <row r="30" spans="1:1" ht="15">
       <c r="A30" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15">
+      <c r="A31" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15">
+      <c r="A32" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15">
+      <c r="A33" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15">
+      <c r="A34" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15">
+      <c r="A35" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15">
+      <c r="A36" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15">
+      <c r="A37" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15">
+      <c r="A38" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15">
+      <c r="A39" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15">
+      <c r="A40" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15">
+      <c r="A41" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15">
+      <c r="A42" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15">
+      <c r="A43" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15">
+      <c r="A44" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15">
+      <c r="A45" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15">
+      <c r="A46" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15">
+      <c r="A47" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15">
+      <c r="A48" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15">
+      <c r="A49" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15">
+      <c r="A50" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15">
+      <c r="A51" s="2" t="s">
         <v>2</v>
       </c>
     </row>
